--- a/instru_info.xlsx
+++ b/instru_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>volume(cm^3)</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>sample_density(cm^3/g)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -107,11 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -421,32 +420,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1304.1600000000001</v>
+        <v>1304.17</v>
       </c>
       <c r="B2">
-        <v>1341.76</v>
+        <v>1342.89</v>
       </c>
       <c r="C2">
-        <v>2.4047654999999999</v>
+        <v>2.3820990677345826</v>
       </c>
     </row>
   </sheetData>
@@ -456,20 +455,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,9 +510,6 @@
       <c r="B6" s="2">
         <v>3.6172432300000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -524,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,25 +532,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
         <v>38.007190000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>12.8589</v>
       </c>
     </row>
